--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,6 +486,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GMHOR:0000001</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -486,21 +486,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GMHOR:0000001</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A relationship that specifies the context in which a process happens. </t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>process</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -486,13 +486,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GMHOR:0000001</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relationship that specifies the context in which a process happens. </t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>process</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GMHOR:0000001</t>
+          <t>GMHOR:0000004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
